--- a/medicine/Enfance/Tiffany_Cooper/Tiffany_Cooper.xlsx
+++ b/medicine/Enfance/Tiffany_Cooper/Tiffany_Cooper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tiffany Cooper, née le 3 janvier 1985 à Grenoble, est une illustratrice française, auteure de bande dessinée, d'ouvrages pour la jeunesse et blogueuse.
 </t>
@@ -511,21 +523,23 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De ses trois à ses cinq ans, Tiffany Coooper vit à San Francisco, avant de retourner à Grenoble, sa ville natale[1].
-Elle étudie à l'École supérieure des arts décoratifs de Strasbourg[1].
-Elle travaille ensuite comme assistante de galerie, vendeuse et coordinatrice retail pour des marques comme Sonia Rykiel et Isabel Marant[2]. Une fois placée à un poste à responsabilité, elle décide de tout quitter.
-Elle voyage et commence en 2012 un blog d'illustration : « Le Meilleur des Mondes Possibles » qui croque le monde de la mode, et pour s'amuser de ses déboires de jeune chômeuse en galère[3].
-Ce blog lui permet d'être remarquée et de publier un premier livre en 2013 chez Alter Comics : un recueil d'illustrations humoristiques issus de son blog[4].
-Elle se lance alors comme free-lance et enchaîne les partenariats, comme une collection capsule de pièces vendues dans les boutiques colette[5].
-En 2014, elle envoie une lettre à Karl Lagerfeld qu'elle dessine beaucoup sur son blog. S'en suit une exposition dans la boutique du créateur à Saint-Germain-des-Prés[6], « Karlywood », faite d'affiches détournant des films célèbres en y intégrant Karl Lagerfeld[7]. L'illustratrice signe également une mini-collection de prêt-à-porter et d'accessoires pour Karl Lagerfeld[2]. Sur un sweat, une minaudière, ou des tee-shirts, « elle se moque avec tendresse de l'obsession de Karl Lagerfeld pour son animal de compagnie[8] », Choupette.
-En 2015, elle met en scène le « Dressing de rêve des Parisiens », un salon organisé par la Ville de Paris rendant hommage aux jeunes créateurs de prêt-à-porter parisiens[9].
-La même année, elle fait paraître un roman graphique livrant les secrets et anecdotes de la vie de Lagerfeld[2].
-En 2017, la marque horlogère Charlie Watch s’associe à elle pour un coffret exclusif. Ils apprécient « la spontanéité, l’humour et l’univers créatif à la fois régressif et avant-gardiste » de Tiffany Cooper[10].
-En 2019, elle dépeint les joies (et les peines) de l’avant-pendant-après grossesse dans sa bande dessinée : Moi, Maman ?[11]
-Avec Homme Sweet Homme publié en 2021, elle explore le thème épineux des inégalités homme/femme au sein du foyer et en particulier de la "charge domestique conjugale". La revue Vogue souligne "l'humour ravageur" de l'autrice[12].
-En 2023, elle publie son premier album jeunesse, Patatouille. Elle « s’attaque aux injonctions à la masculinité qui pèsent dès l'enfance sur les petits garçons »[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De ses trois à ses cinq ans, Tiffany Coooper vit à San Francisco, avant de retourner à Grenoble, sa ville natale.
+Elle étudie à l'École supérieure des arts décoratifs de Strasbourg.
+Elle travaille ensuite comme assistante de galerie, vendeuse et coordinatrice retail pour des marques comme Sonia Rykiel et Isabel Marant. Une fois placée à un poste à responsabilité, elle décide de tout quitter.
+Elle voyage et commence en 2012 un blog d'illustration : « Le Meilleur des Mondes Possibles » qui croque le monde de la mode, et pour s'amuser de ses déboires de jeune chômeuse en galère.
+Ce blog lui permet d'être remarquée et de publier un premier livre en 2013 chez Alter Comics : un recueil d'illustrations humoristiques issus de son blog.
+Elle se lance alors comme free-lance et enchaîne les partenariats, comme une collection capsule de pièces vendues dans les boutiques colette.
+En 2014, elle envoie une lettre à Karl Lagerfeld qu'elle dessine beaucoup sur son blog. S'en suit une exposition dans la boutique du créateur à Saint-Germain-des-Prés, « Karlywood », faite d'affiches détournant des films célèbres en y intégrant Karl Lagerfeld. L'illustratrice signe également une mini-collection de prêt-à-porter et d'accessoires pour Karl Lagerfeld. Sur un sweat, une minaudière, ou des tee-shirts, « elle se moque avec tendresse de l'obsession de Karl Lagerfeld pour son animal de compagnie », Choupette.
+En 2015, elle met en scène le « Dressing de rêve des Parisiens », un salon organisé par la Ville de Paris rendant hommage aux jeunes créateurs de prêt-à-porter parisiens.
+La même année, elle fait paraître un roman graphique livrant les secrets et anecdotes de la vie de Lagerfeld.
+En 2017, la marque horlogère Charlie Watch s’associe à elle pour un coffret exclusif. Ils apprécient « la spontanéité, l’humour et l’univers créatif à la fois régressif et avant-gardiste » de Tiffany Cooper.
+En 2019, elle dépeint les joies (et les peines) de l’avant-pendant-après grossesse dans sa bande dessinée : Moi, Maman ?
+Avec Homme Sweet Homme publié en 2021, elle explore le thème épineux des inégalités homme/femme au sein du foyer et en particulier de la "charge domestique conjugale". La revue Vogue souligne "l'humour ravageur" de l'autrice.
+En 2023, elle publie son premier album jeunesse, Patatouille. Elle « s’attaque aux injonctions à la masculinité qui pèsent dès l'enfance sur les petits garçons ».
 </t>
         </is>
       </c>
